--- a/excel/beam-analysis.xlsx
+++ b/excel/beam-analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVIN\CLT TOOLBOX\javascript-test-calculator-test\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVIN\CLT TOOLBOX\javascript-test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C2E24-FE3F-40D6-BF2E-B75E29ACB631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CDDF4-9260-4343-9E6B-B2C44ADC181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{06323F42-374D-8043-B3CD-A4C25C676AC9}"/>
   </bookViews>
@@ -8504,8 +8504,8 @@
   </sheetPr>
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -16366,8 +16366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894285D5-4F9B-484A-90B9-FBDD72A96AD5}">
   <dimension ref="A1:AJ347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH56" sqref="AH56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
@@ -16792,7 +16792,7 @@
         <v>0.9</v>
       </c>
       <c r="F50" s="37">
-        <f t="shared" ref="F49:F61" si="0">IF(E50=0,$E$36,IF(E50=$I$11,($E$36+$E$37)-$B$5*$I$11,IF(AND(E50=$I$5,E49-$I$5&lt;0),$E$36-$B$5*$I$5,IF(AND(E50=$I$5,E51-$I$5&gt;0),($E$36+$E$37)-($B$5*$I$5),IF(E50&lt;$I$5,$E$36-$B$5*E50,($E$36+$E$37)-$B$5*E50)))))</f>
+        <f t="shared" ref="F50:F61" si="0">IF(E50=0,$E$36,IF(E50=$I$11,($E$36+$E$37)-$B$5*$I$11,IF(AND(E50=$I$5,E49-$I$5&lt;0),$E$36-$B$5*$I$5,IF(AND(E50=$I$5,E51-$I$5&gt;0),($E$36+$E$37)-($B$5*$I$5),IF(E50&lt;$I$5,$E$36-$B$5*E50,($E$36+$E$37)-$B$5*E50)))))</f>
         <v>12.806625</v>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="44">
-        <f t="shared" ref="E50:E61" si="1">IF(E50=0,E50+$I$11/10,IF(AND(ABS(E50-$I$5)&lt;=$I$11/10,E50-$I$5&lt;0),$I$5,IF(AND(E50-$I$5=0,ABS(E49-$I$5)&lt;=$I$11/10,E49&lt;&gt;E50),$I$5,IF(ABS(E50-$I$11)&lt;$I$11/10,$I$11,E50+$I$11/10))))</f>
+        <f t="shared" ref="E51:E61" si="1">IF(E50=0,E50+$I$11/10,IF(AND(ABS(E50-$I$5)&lt;=$I$11/10,E50-$I$5&lt;0),$I$5,IF(AND(E50-$I$5=0,ABS(E49-$I$5)&lt;=$I$11/10,E49&lt;&gt;E50),$I$5,IF(ABS(E50-$I$11)&lt;$I$11/10,$I$11,E50+$I$11/10))))</f>
         <v>1.8</v>
       </c>
       <c r="F51" s="37">
@@ -17073,11 +17073,19 @@
         <v>9</v>
       </c>
       <c r="E84" s="38">
-        <f t="shared" ref="E84:E96" si="3">IF(E83=0,E83+$I$11/10,IF(AND(ABS(E83-$I$5)&lt;=$I$11/10,E83-$I$5&lt;0),$I$5,IF(AND(E83&lt;$I$5,E83&lt;&gt;$E$36/$B$5,E82&lt;&gt;$E$36/$B$5,ABS(E83-$E$36/$B$5)&lt;=$I$11/10),$E$36/$B$5,IF(ABS(E83-$I$11)&lt;$I$11/10,$I$11,IF(AND(E83&gt;$I$5,E83&lt;&gt;$I$11-($E$38/$B$5),E82&lt;&gt;$I$11-($E$38/$B$5),ABS(E83-($I$11-($E$38/$B$5)))&lt;$I$11/10),$I$11-($E$38/$B$5),IF(OR(E83=$E$36/$B$5,E83=$I$11-($E$38/$B$5)),E82+$I$11/10,E83+$I$11/10))))))</f>
+        <f>IF(E83=0,E83+$I$11/10,
+IF(AND(ABS(E83-$I$5)&lt;=$I$11/10,E83-$I$5&lt;0),$I$5,
+IF(AND(E83&lt;$I$5,E83&lt;&gt;$E$36/$B$5,E82&lt;&gt;$E$36/$B$5,ABS(E83-$E$36/$B$5)&lt;=$I$11/10),$E$36/$B$5,
+IF(ABS(E83-$I$11)&lt;$I$11/10,$I$11,
+IF(AND(E83&gt;$I$5,E83&lt;&gt;$I$11-($E$38/$B$5),E82&lt;&gt;$I$11-($E$38/$B$5),ABS(E83-($I$11-($E$38/$B$5)))&lt;$I$11/10),$I$11-($E$38/$B$5),
+IF(OR(E83=$E$36/$B$5,E83=$I$11-($E$38/$B$5)),E82+$I$11/10,R82
+                                                                                                                                                                                                                                                                E83+$I$11/10))))))</f>
         <v>0.9</v>
       </c>
       <c r="F84" s="37">
-        <f t="shared" si="2"/>
+        <f>ROUND(IF(OR(E84=0,E84=$I$11),0,
+IF(E84&lt;$I$5,-($E$36*E84-0.5*$B$5*((E84)^2)),
+IF(E84&gt;$I$5,-(($E$36*E84+$E$37*(E84-$I$5))-(0.5*$B$5*((E84)^2))),-($E$36*$I$5-(0.5*$B$5*(($I$5)^2)))))),2)</f>
         <v>-23.21</v>
       </c>
     </row>
@@ -17086,7 +17094,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E85:E96" si="3">IF(E84=0,E84+$I$11/10,IF(AND(ABS(E84-$I$5)&lt;=$I$11/10,E84-$I$5&lt;0),$I$5,IF(AND(E84&lt;$I$5,E84&lt;&gt;$E$36/$B$5,E83&lt;&gt;$E$36/$B$5,ABS(E84-$E$36/$B$5)&lt;=$I$11/10),$E$36/$B$5,IF(ABS(E84-$I$11)&lt;$I$11/10,$I$11,IF(AND(E84&gt;$I$5,E84&lt;&gt;$I$11-($E$38/$B$5),E83&lt;&gt;$I$11-($E$38/$B$5),ABS(E84-($I$11-($E$38/$B$5)))&lt;$I$11/10),$I$11-($E$38/$B$5),IF(OR(E84=$E$36/$B$5,E84=$I$11-($E$38/$B$5)),E83+$I$11/10,E84+$I$11/10))))))</f>
         <v>1.34375</v>
       </c>
       <c r="F85" s="37">
@@ -24229,7 +24237,7 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F11:H11"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AG12" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"NVQ,IVQ,DVQ"</formula1>
     </dataValidation>

--- a/excel/beam-analysis.xlsx
+++ b/excel/beam-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAVIN\CLT TOOLBOX\javascript-test\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660CDDF4-9260-4343-9E6B-B2C44ADC181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4400638F-799E-483C-A588-AB5E416F09C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{06323F42-374D-8043-B3CD-A4C25C676AC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{06323F42-374D-8043-B3CD-A4C25C676AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Simply Supported UDL" sheetId="2" r:id="rId1"/>
@@ -7539,10 +7539,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>386514</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>42947</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5690779" cy="490764"/>
     <xdr:pic>
@@ -7566,7 +7566,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10563225" y="27822525"/>
+          <a:off x="11064540" y="32344394"/>
           <a:ext cx="5690779" cy="490764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7582,10 +7582,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140702</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>150061</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7040335" cy="741136"/>
     <xdr:pic>
@@ -7609,7 +7609,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233150" y="28327350"/>
+          <a:off x="11754518" y="32885982"/>
           <a:ext cx="7040335" cy="741136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8504,8 +8504,8 @@
   </sheetPr>
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -16366,8 +16366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894285D5-4F9B-484A-90B9-FBDD72A96AD5}">
   <dimension ref="A1:AJ347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AH56" sqref="AH56"/>
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.25"/>
@@ -17857,7 +17857,7 @@
         <v>9</v>
       </c>
       <c r="E138" s="26">
-        <f t="shared" si="6"/>
+        <f>(((E$36*D138/6)*(D138^2-I$5^2))+((E$37*D138/6)*((D138^2)-(3*I$5*D138)+(3*I$5^2)))-(E$37*(I$5^3)/6)-((B$5*D138/24)*((D138^3)-(I$5^3))))/(B$9/1000^3)*1000*N$5</f>
         <v>1.1549139070132421E-12</v>
       </c>
       <c r="F138" s="23"/>
